--- a/src/test/resources/testdata/actidata.xlsx
+++ b/src/test/resources/testdata/actidata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Muthu\workspace\com.qa.actitime\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuthuMalai\git\com.qa.actitime\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319E4EB-8CA0-4966-9238-07FEDE802054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A7C723-FB17-403B-A9B0-085BEAF42DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,156 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
-    <t>Username1</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>Username2</t>
-  </si>
-  <si>
-    <t>Username3</t>
-  </si>
-  <si>
-    <t>Username4</t>
-  </si>
-  <si>
-    <t>Username5</t>
-  </si>
-  <si>
-    <t>Username6</t>
-  </si>
-  <si>
-    <t>Username7</t>
-  </si>
-  <si>
-    <t>Username8</t>
-  </si>
-  <si>
-    <t>Username9</t>
-  </si>
-  <si>
-    <t>Username10</t>
-  </si>
-  <si>
-    <t>Username11</t>
-  </si>
-  <si>
-    <t>Username12</t>
-  </si>
-  <si>
-    <t>Username13</t>
-  </si>
-  <si>
-    <t>Username14</t>
-  </si>
-  <si>
-    <t>Username15</t>
-  </si>
-  <si>
-    <t>Username16</t>
-  </si>
-  <si>
-    <t>Username17</t>
-  </si>
-  <si>
-    <t>Username18</t>
-  </si>
-  <si>
-    <t>Username19</t>
-  </si>
-  <si>
-    <t>Username20</t>
-  </si>
-  <si>
-    <t>Username21</t>
-  </si>
-  <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>Password3</t>
-  </si>
-  <si>
-    <t>Password4</t>
-  </si>
-  <si>
-    <t>Password5</t>
-  </si>
-  <si>
-    <t>Password6</t>
-  </si>
-  <si>
-    <t>Password7</t>
-  </si>
-  <si>
-    <t>Password8</t>
-  </si>
-  <si>
-    <t>Password9</t>
-  </si>
-  <si>
-    <t>Password10</t>
-  </si>
-  <si>
-    <t>Password11</t>
-  </si>
-  <si>
-    <t>Password12</t>
-  </si>
-  <si>
-    <t>Password13</t>
-  </si>
-  <si>
-    <t>Password14</t>
-  </si>
-  <si>
-    <t>Password15</t>
-  </si>
-  <si>
-    <t>Password16</t>
-  </si>
-  <si>
-    <t>Password17</t>
-  </si>
-  <si>
-    <t>Password18</t>
-  </si>
-  <si>
-    <t>Password19</t>
-  </si>
-  <si>
-    <t>Password20</t>
-  </si>
-  <si>
-    <t>Password21</t>
-  </si>
-  <si>
-    <t>Username22</t>
-  </si>
-  <si>
-    <t>Username23</t>
-  </si>
-  <si>
-    <t>Username24</t>
-  </si>
-  <si>
-    <t>Username25</t>
-  </si>
-  <si>
-    <t>Password22</t>
-  </si>
-  <si>
-    <t>Password23</t>
-  </si>
-  <si>
-    <t>Password24</t>
-  </si>
-  <si>
-    <t>Password25</t>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -498,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B25"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,194 +376,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/actidata.xlsx
+++ b/src/test/resources/testdata/actidata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuthuMalai\git\com.qa.actitime\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A7C723-FB17-403B-A9B0-085BEAF42DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B3ABC2-134A-4653-8052-B7D1BFDB9080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>admin</t>
   </si>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,22 +390,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
